--- a/NonLinear_Programming.xlsx
+++ b/NonLinear_Programming.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yash/Documents/Github/EnterpriseAnalytics/Enterprise_Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0607F14A-4C4A-EE48-AD6F-F5D7F78105C8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06F3FD5-6CA9-D448-AEB0-8622744ADA98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{510D367B-8326-EF4F-93B9-D892CB090E58}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19140" xr2:uid="{510D367B-8326-EF4F-93B9-D892CB090E58}"/>
   </bookViews>
   <sheets>
-    <sheet name="Problem 1 Part A" sheetId="1" r:id="rId1"/>
-    <sheet name="Problem 1 Part B" sheetId="2" r:id="rId2"/>
+    <sheet name="Book 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Book 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Problem 1 Part A'!$C$14:$C$22</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'Problem 1 Part B'!$C$14:$D$22</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Book 1'!$C$14:$C$22</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">'Book 2'!$C$14:$D$22</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
@@ -27,20 +27,20 @@
     <definedName name="solver_eng" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Problem 1 Part A'!$C$14:$C$22</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Problem 1 Part B'!$C$14:$C$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Problem 1 Part A'!$C$14:$C$22</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Problem 1 Part B'!$C$14:$C$22</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Problem 1 Part A'!$F$14</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Problem 1 Part B'!$D$14:$D$22</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Problem 1 Part A'!$F$15</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Problem 1 Part B'!$D$23</definedName>
-    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Problem 1 Part A'!$F$16</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Problem 1 Part B'!$H$14</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Problem 1 Part A'!$H$14:$H$22</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Problem 1 Part B'!$H$15</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Problem 1 Part A'!$H$23</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Problem 1 Part B'!$H$16</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Book 1'!$C$14:$C$22</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Book 2'!$C$14:$C$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Book 1'!$C$14:$C$22</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Book 2'!$C$14:$C$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Book 1'!$F$14</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Book 2'!$D$14:$D$22</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Book 1'!$F$15</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">'Book 2'!$D$23</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Book 1'!$F$16</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">'Book 2'!$H$14</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Book 1'!$H$14:$H$22</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">'Book 2'!$H$15</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Book 1'!$H$23</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">'Book 2'!$H$16</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_lin" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
@@ -57,8 +57,8 @@
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">7</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Problem 1 Part A'!$F$17</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'Problem 1 Part B'!$H$17</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Book 1'!$F$17</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'Book 2'!$H$17</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -77,20 +77,20 @@
     <definedName name="solver_rel6" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel7" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Problem 1 Part A'!$F$3:$F$11</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Problem 1 Part B'!$E$14:$E$22</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Book 1'!$F$3:$F$11</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">'Book 2'!$E$14:$E$22</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">integer</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">integer</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Problem 1 Part A'!$G$14</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Book 1'!$G$14</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">binary</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Problem 1 Part A'!$G$15</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Book 1'!$G$15</definedName>
     <definedName name="solver_rhs4" localSheetId="1" hidden="1">6</definedName>
-    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Problem 1 Part A'!$G$16</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Problem 1 Part B'!$I$14</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Book 1'!$G$16</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">'Book 2'!$I$14</definedName>
     <definedName name="solver_rhs6" localSheetId="0" hidden="1">binary</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Problem 1 Part B'!$I$15</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">'Book 2'!$I$15</definedName>
     <definedName name="solver_rhs7" localSheetId="0" hidden="1">6</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Problem 1 Part B'!$I$16</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">'Book 2'!$I$16</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
@@ -120,7 +120,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
